--- a/data/remote_work.xlsx
+++ b/data/remote_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zwixom/School/Marketing/Presenting Data STAT 495R/Rstudio/presenting_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E1DF33-F554-4042-BEA2-16387996EBFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA192EE1-9D12-0547-A313-75E92E4019B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{6DB169CD-B985-B54E-8336-86874832D79E}"/>
   </bookViews>
@@ -36,15 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>Few</t>
-  </si>
-  <si>
-    <t>Many</t>
-  </si>
-  <si>
-    <t>Most</t>
-  </si>
-  <si>
     <t>Time period</t>
   </si>
   <si>
@@ -54,7 +45,16 @@
     <t>During</t>
   </si>
   <si>
-    <t>After</t>
+    <t>After*</t>
+  </si>
+  <si>
+    <t>&lt;29%</t>
+  </si>
+  <si>
+    <t>30-59%</t>
+  </si>
+  <si>
+    <t>&gt;60%</t>
   </si>
 </sst>
 </file>
@@ -421,35 +421,35 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>0.36</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>0.02</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
         <v>0.11</v>

--- a/data/remote_work.xlsx
+++ b/data/remote_work.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zwixom/School/Marketing/Presenting Data STAT 495R/Rstudio/presenting_data/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA192EE1-9D12-0547-A313-75E92E4019B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B8C803-9645-6E4B-B134-9B50148797B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{6DB169CD-B985-B54E-8336-86874832D79E}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>After*</t>
   </si>
   <si>
-    <t>&lt;29%</t>
-  </si>
-  <si>
-    <t>30-59%</t>
-  </si>
-  <si>
-    <t>&gt;60%</t>
+    <t>Few</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>Most</t>
   </si>
 </sst>
 </file>
@@ -421,7 +421,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
